--- a/Single DAO Result/RDNT results_output.xlsx
+++ b/Single DAO Result/RDNT results_output.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00358404417455056</v>
+        <v>0.002787021329857777</v>
       </c>
     </row>
     <row r="3">
@@ -457,27 +457,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5663372291553492</v>
+        <v>0.5535858307335785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gov</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5048349291875577</v>
+        <v>-0.861637859871893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Revenue</t>
+          <t>Users</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7017703610234678</v>
+        <v>-0.5156081061894968</v>
       </c>
     </row>
   </sheetData>
